--- a/7-ig---structure/ig/StructureDefinition-EyeColor.xlsx
+++ b/7-ig---structure/ig/StructureDefinition-EyeColor.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-21T08:22:44+00:00</t>
+    <t>2025-08-21T08:43:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/7-ig---structure/ig/StructureDefinition-EyeColor.xlsx
+++ b/7-ig---structure/ig/StructureDefinition-EyeColor.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-21T08:43:51+00:00</t>
+    <t>2025-08-22T12:55:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
